--- a/examples/fundraiser.xlsx
+++ b/examples/fundraiser.xlsx
@@ -1,35 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\cps301\class\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bju-my.sharepoint.com/personal/sschaub_bju_edu/Documents/teaching/cps301/class/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03722FA-7F85-4570-8E24-B3E016C6CF35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{B03722FA-7F85-4570-8E24-B3E016C6CF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F53D608D-A343-4647-A0D3-764447C8EB27}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Attempt 2" sheetId="4" r:id="rId2"/>
     <sheet name="Attempt 3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
-    <t>Cycling Fundraiser</t>
-  </si>
-  <si>
-    <t>Cyclists</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -111,9 +116,6 @@
     <t>Pledges</t>
   </si>
   <si>
-    <t>CyclistID</t>
-  </si>
-  <si>
     <t>PledgerID</t>
   </si>
   <si>
@@ -121,13 +123,23 @@
   </si>
   <si>
     <t>sabbo921@students.bju.edu</t>
+  </si>
+  <si>
+    <t>Biking Fundraiser</t>
+  </si>
+  <si>
+    <t>Bikers</t>
+  </si>
+  <si>
+    <t>BikerID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
@@ -147,13 +159,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -169,6 +174,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,39 +199,44 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{8182AB7F-0FC0-4219-BA37-90E39157CB30}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{8182AB7F-0FC0-4219-BA37-90E39157CB30}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,7 +575,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -578,173 +592,178 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="14">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.3</v>
+      </c>
+      <c r="G11" s="16">
+        <v>6</v>
+      </c>
+      <c r="H11" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="16">
         <v>5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="5">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -754,201 +773,217 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="14.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="D17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="18">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D20" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.8</v>
       </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{42EB3E83-F932-4BE3-9994-C3DD1B15C9B6}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{DD5FA81E-AB0C-4508-86DB-7A90A9F31B13}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{05F83816-60D4-42BB-8095-56C892C0FD9A}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -958,226 +993,239 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="11.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>101</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>102</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>103</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>101</v>
+      </c>
+      <c r="C18" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D18" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="18">
+        <v>6</v>
+      </c>
+      <c r="F18" s="18">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>102</v>
+      </c>
+      <c r="C19" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D19" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="18">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>102</v>
+      </c>
+      <c r="C20" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="D20" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>103</v>
+      </c>
+      <c r="C21" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
-        <v>101</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <v>102</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+      <c r="D21" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
         <v>103</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
-        <v>104</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
-        <v>101</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="C22" s="12">
         <v>1</v>
       </c>
-      <c r="D18" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
-        <v>102</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
-        <v>102</v>
-      </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
-        <v>103</v>
-      </c>
-      <c r="C21" s="13">
-        <v>3</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
-        <v>103</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0.8</v>
       </c>
     </row>
